--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loan34Data.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loan34Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE86D56-31FE-4F47-986E-004C33FD4404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA73D1C-1916-47BA-9ABC-1B57BA6981B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="13290" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>抓取月底日資料，並以天數表示</t>
-  </si>
-  <si>
     <t>OvduDate</t>
   </si>
   <si>
@@ -852,6 +849,10 @@
   </si>
   <si>
     <t>NTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底日資料，並以天數表示,2021/12/23放大為4位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1548,22 +1549,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="72.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="72.875" style="4"/>
+    <col min="8" max="16384" width="72.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
@@ -1591,20 +1592,20 @@
       <c r="F2" s="16"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1616,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
@@ -1626,7 +1627,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1638,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
@@ -1648,7 +1649,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1671,12 +1672,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>29</v>
@@ -1690,7 +1691,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1709,7 +1710,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1728,7 +1729,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>28</v>
@@ -1766,7 +1767,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1785,7 +1786,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1806,12 +1807,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>65</v>
@@ -1824,10 +1825,10 @@
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="136.5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="148.19999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1888,7 +1889,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1906,10 +1907,10 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>34</v>
@@ -1927,10 +1928,10 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1974,7 +1975,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2080,10 +2081,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -2097,22 +2098,22 @@
         <v>28</v>
       </c>
       <c r="E29" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>34</v>
@@ -2122,18 +2123,18 @@
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>34</v>
@@ -2143,18 +2144,18 @@
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>28</v>
@@ -2166,18 +2167,18 @@
         <v>2</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>28</v>
@@ -2187,18 +2188,18 @@
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>28</v>
@@ -2208,18 +2209,18 @@
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>28</v>
@@ -2232,15 +2233,15 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>28</v>
@@ -2250,18 +2251,18 @@
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>28</v>
@@ -2271,18 +2272,18 @@
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>28</v>
@@ -2292,18 +2293,18 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>28</v>
@@ -2313,18 +2314,18 @@
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>3</v>
@@ -2335,15 +2336,15 @@
       <c r="F40" s="19"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>3</v>
@@ -2353,18 +2354,18 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>3</v>
@@ -2375,15 +2376,15 @@
       <c r="F42" s="19"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>3</v>
@@ -2394,15 +2395,15 @@
       <c r="F43" s="19"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
@@ -2413,15 +2414,15 @@
       <c r="F44" s="19"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
@@ -2432,15 +2433,15 @@
       <c r="F45" s="19"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>28</v>
@@ -2450,18 +2451,18 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>39</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>139</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>28</v>
@@ -2472,15 +2473,15 @@
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>3</v>
@@ -2490,18 +2491,18 @@
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>41</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>144</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>28</v>
@@ -2514,15 +2515,15 @@
       </c>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>42</v>
       </c>
       <c r="B50" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>34</v>
@@ -2533,15 +2534,15 @@
       <c r="F50" s="19"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>43</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>28</v>
@@ -2552,15 +2553,15 @@
       <c r="F51" s="19"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>44</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>28</v>
@@ -2571,15 +2572,15 @@
       <c r="F52" s="19"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>45</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>28</v>
@@ -2590,15 +2591,15 @@
       <c r="F53" s="19"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>46</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>28</v>
@@ -2611,15 +2612,15 @@
       </c>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>47</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>28</v>
@@ -2631,18 +2632,18 @@
         <v>2</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>48</v>
       </c>
       <c r="B56" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>28</v>
@@ -2655,7 +2656,7 @@
       </c>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>49</v>
       </c>
@@ -2678,15 +2679,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>50</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>3</v>
@@ -2696,18 +2697,18 @@
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>51</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>28</v>
@@ -2722,12 +2723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>52</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>48</v>
@@ -2743,7 +2744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>53</v>
       </c>
@@ -2761,10 +2762,10 @@
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>54</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>34</v>
@@ -2782,10 +2783,10 @@
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>55</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>56</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>57</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>59</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>45</v>
@@ -2846,15 +2847,15 @@
       <c r="F65" s="19"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>58</v>
       </c>
       <c r="B66" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>186</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>3</v>
@@ -2864,18 +2865,18 @@
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>59</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>28</v>
@@ -2885,10 +2886,10 @@
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>60</v>
       </c>
@@ -2905,7 +2906,7 @@
       <c r="F68" s="19"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>61</v>
       </c>
@@ -2924,7 +2925,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>62</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="F70" s="19"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>63</v>
       </c>
@@ -2960,7 +2961,7 @@
       <c r="F71" s="19"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -2969,7 +2970,7 @@
       <c r="F72" s="19"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -2978,7 +2979,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -2987,7 +2988,7 @@
       <c r="F74" s="19"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -2996,7 +2997,7 @@
       <c r="F75" s="19"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -3005,7 +3006,7 @@
       <c r="F76" s="19"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -3014,7 +3015,7 @@
       <c r="F77" s="19"/>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -3023,7 +3024,7 @@
       <c r="F78" s="19"/>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -3032,7 +3033,7 @@
       <c r="F79" s="19"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -3041,7 +3042,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -3050,7 +3051,7 @@
       <c r="F81" s="19"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -3059,7 +3060,7 @@
       <c r="F82" s="19"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -3068,7 +3069,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -3077,7 +3078,7 @@
       <c r="F84" s="19"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -3086,7 +3087,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -3095,7 +3096,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -3104,7 +3105,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -3113,7 +3114,7 @@
       <c r="F88" s="19"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -3122,7 +3123,7 @@
       <c r="F89" s="19"/>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -3131,7 +3132,7 @@
       <c r="F90" s="19"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -3140,7 +3141,7 @@
       <c r="F91" s="19"/>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -3149,7 +3150,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -3158,7 +3159,7 @@
       <c r="F93" s="19"/>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -3167,7 +3168,7 @@
       <c r="F94" s="19"/>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -3176,7 +3177,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -3185,7 +3186,7 @@
       <c r="F96" s="19"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -3194,7 +3195,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -3203,7 +3204,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -3212,7 +3213,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -3221,7 +3222,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -3230,7 +3231,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -3239,7 +3240,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -3248,7 +3249,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -3257,7 +3258,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -3266,7 +3267,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -3275,7 +3276,7 @@
       <c r="F106" s="19"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -3309,15 +3310,15 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3343,34 +3344,34 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="34"/>
+    <col min="1" max="1" width="33.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loan34Data.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loan34Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA73D1C-1916-47BA-9ABC-1B57BA6981B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E667C292-815A-441F-A6DD-85431931A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,11 +196,6 @@
     <t>RecycleCode</t>
   </si>
   <si>
-    <t>0: 非循環動用  
-1: 循環動用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FirstDrawdownDate</t>
   </si>
   <si>
@@ -237,11 +232,6 @@
   </si>
   <si>
     <t>該筆額度是否為不可徹銷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 可徹銷  
-1: 不可徹銷</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -290,11 +280,6 @@
   </si>
   <si>
     <t>已核撥記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 未核撥  
-1: 已核撥</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -347,22 +332,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0: 正常戶(含未核撥)
-1: 展期
-2: 催收戶
-3: 結案戶
-4: 逾期戶
-5: 催收結案戶
-6: 呆帳戶
-7: 部分轉呆戶
-8: 債權轉讓戶
-9: 呆帳結案戶
-97:預約撥款已刪除
-98:預約已撥款
-99:預約撥款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>初貸日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -523,8 +492,323 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>RateCode</t>
+  </si>
+  <si>
+    <t>契約當時利率調整方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayFreq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約約定當時還本週期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>若為到期還本，則填入0；
+若按月還本，則填入1；
+季繳，3；
+半年，6；
+年繳,12。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayIntFreq</t>
+  </si>
+  <si>
+    <t>契約約定當時繳息週期</t>
+  </si>
+  <si>
+    <t>若為到期繳息，則填入0；
+若按月還本，則填入1；
+季繳，3；
+半年，6；
+年繳,12。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryCode</t>
+  </si>
+  <si>
+    <t>授信行業別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClTypeJCIC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品類別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以對應至JCIC的類別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode</t>
+  </si>
+  <si>
+    <t>擔保品地區別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaCode</t>
+  </si>
+  <si>
+    <t>擔保品鄉鎮區</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zip3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品郵遞區號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseRateCode</t>
+  </si>
+  <si>
+    <t>商品利率代碼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustKind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業戶/個人戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetKind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五類資產分類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo</t>
+  </si>
+  <si>
+    <t>產品別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaAmt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始鑑價金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstDueDate</t>
+  </si>
+  <si>
+    <t>首次應繳日</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalPeriod</t>
+  </si>
+  <si>
+    <t>總期數</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgreeBefFacmNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>協議前之額度編號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgreeBefBormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>協議前之撥款序號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UtilAmt</t>
+  </si>
+  <si>
+    <t>累計撥款金額(額度)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UtilBal</t>
+  </si>
+  <si>
+    <t>已動用餘額(額度)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempAmt</t>
+  </si>
+  <si>
+    <t>暫收款金額(台幣)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>記帳幣別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>ExchangeRate</t>
+  </si>
+  <si>
+    <t>報導日匯率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApproveDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底時適用利率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">已撥款案件到期日
+未撥款案件值為0 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日(撥款)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度動支期限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>循環動用期限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳冊別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸款年數(2)+貸款月數(2)+貸款日數(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已動用額度餘額(循環動用還款時會減少,非循環動用還款時不會減少)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataYM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataYM,CustNo,FacmNo,ApplNo,BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stored Procedure Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>int TBSDYF, String EmpNo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L7_Ias39Loan34Data_Upd</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 Ias39Loan34Data 聯徵IAS39放款34號公報資料檔</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔，對應 AcctCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計科目(8碼)</t>
+  </si>
+  <si>
+    <t>FacAmortizedCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款方式(額度)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底日資料，並以天數表示,2021/12/23放大為4位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未核撥  
+1:已核撥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未核撥:額度核准科目
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常戶(含未核撥)
+1:展期
+2:催收戶
+3:結案戶
+4:逾期戶
+5:催收結案戶
+6:呆帳戶
+7:部分轉呆戶
+8:債權轉讓戶
+9:呆帳結案戶
+97:預約撥款已刪除
+98:預約已撥款
+99:預約撥款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1=</t>
+      <t>1:</t>
     </r>
     <r>
       <rPr>
@@ -533,326 +817,42 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>按期繳息(到期還本)；
-2=平均攤還本息；
-3=平均攤還本金；
-4=到期繳息還本</t>
+      <t>按期繳息(到期還本)
+2:平均攤還本息
+3:平均攤還本金
+4:到期繳息還本</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RateCode</t>
-  </si>
-  <si>
-    <t>契約當時利率調整方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=機動；
-2=固定；
-3=固定階梯；
-4=浮動階梯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayFreq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>契約約定當時還本週期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若為到期還本，則填入0；
-若按月還本，則填入1；
-季繳，3；
-半年，6；
-年繳,12。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PayIntFreq</t>
-  </si>
-  <si>
-    <t>契約約定當時繳息週期</t>
-  </si>
-  <si>
-    <t>若為到期繳息，則填入0；
-若按月還本，則填入1；
-季繳，3；
-半年，6；
-年繳,12。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndustryCode</t>
-  </si>
-  <si>
-    <t>授信行業別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClTypeJCIC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>擔保品類別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>以對應至JCIC的類別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityCode</t>
-  </si>
-  <si>
-    <t>擔保品地區別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaCode</t>
-  </si>
-  <si>
-    <t>擔保品鄉鎮區</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zip3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>擔保品郵遞區號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseRateCode</t>
-  </si>
-  <si>
-    <t>商品利率代碼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustKind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>企業戶/個人戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=企業戶
-2=個人戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetKind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五類資產分類</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo</t>
-  </si>
-  <si>
-    <t>產品別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作為群組分類。Ex:1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaAmt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始鑑價金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstDueDate</t>
-  </si>
-  <si>
-    <t>首次應繳日</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalPeriod</t>
-  </si>
-  <si>
-    <t>總期數</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgreeBefFacmNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>協議前之額度編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgreeBefBormNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>協議前之撥款序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UtilAmt</t>
-  </si>
-  <si>
-    <t>累計撥款金額(額度)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UtilBal</t>
-  </si>
-  <si>
-    <t>已動用餘額(額度)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempAmt</t>
-  </si>
-  <si>
-    <t>暫收款金額(台幣)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>記帳幣別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyCode</t>
-  </si>
-  <si>
-    <t>ExchangeRate</t>
-  </si>
-  <si>
-    <t>報導日匯率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApproveDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取月底時適用利率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">已撥款案件到期日
-未撥款案件值為0 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日(撥款)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度動支期限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>循環動用期限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>循環: 額度循環動用期限
-非循環: 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳冊別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>貸款年數(2)+貸款月數(2)+貸款日數(2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已動用額度餘額(循環動用還款時會減少,非循環動用還款時不會減少)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataYM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataYM,CustNo,FacmNo,ApplNo,BormNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stored Procedure Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>int TBSDYF, String EmpNo</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usp_L7_Ias39Loan34Data_Upd</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底日日終批次)維護 Ias39Loan34Data 聯徵IAS39放款34號公報資料檔</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未核撥: 額度核准科目
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸
-990: 催收款項</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔，對應 AcctCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計科目(8碼)</t>
-  </si>
-  <si>
-    <t>FacAmortizedCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款方式(額度)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取月底日資料，並以天數表示,2021/12/23放大為4位</t>
+    <t>1:機動
+2:固定
+3:固定階梯
+4:浮動階梯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為群組分類。Ex：1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用  
+1:循環動用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>循環:額度循環動用期限
+非循環:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:可徹銷  
+1:不可徹銷</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1570,10 +1570,10 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="21"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="16"/>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>29</v>
@@ -1696,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>28</v>
@@ -1715,10 +1715,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>28</v>
@@ -1734,10 +1734,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>28</v>
@@ -1753,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>28</v>
@@ -1772,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="19">
         <v>10</v>
@@ -1791,10 +1791,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>28</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="15" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1833,10 +1833,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>28</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="26" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1854,20 +1854,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="E18" s="19">
         <v>8</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1875,13 +1875,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="19">
         <v>8</v>
@@ -1894,20 +1894,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="30">
         <v>8</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1915,20 +1915,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="19">
         <v>8</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1936,10 +1936,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>28</v>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1959,10 +1959,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>28</v>
@@ -1980,10 +1980,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>28</v>
@@ -2001,10 +2001,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>28</v>
@@ -2022,10 +2022,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>28</v>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2045,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>28</v>
@@ -2066,10 +2066,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>28</v>
@@ -2081,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2089,10 +2089,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>28</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="32" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2110,20 +2110,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="19">
         <v>8</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2131,20 +2131,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="19">
         <v>8</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2152,10 +2152,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>28</v>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2175,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>28</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -2196,10 +2196,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>28</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2217,10 +2217,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>28</v>
@@ -2238,10 +2238,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>28</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="24" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -2259,10 +2259,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>28</v>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="24" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2280,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>28</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2301,10 +2301,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>28</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2322,10 +2322,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>3</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2362,10 +2362,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>3</v>
@@ -2381,10 +2381,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>3</v>
@@ -2400,10 +2400,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
@@ -2438,10 +2438,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>28</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="24" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2459,10 +2459,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>28</v>
@@ -2478,10 +2478,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>3</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="24" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2499,10 +2499,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>28</v>
@@ -2520,13 +2520,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" s="19">
         <v>8</v>
@@ -2539,10 +2539,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>28</v>
@@ -2558,10 +2558,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>28</v>
@@ -2577,10 +2577,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>28</v>
@@ -2596,10 +2596,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>28</v>
@@ -2617,10 +2617,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>28</v>
@@ -2632,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2640,10 +2640,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>28</v>
@@ -2661,10 +2661,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>28</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2684,10 +2684,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>3</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="24" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2705,10 +2705,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>28</v>
@@ -2728,20 +2728,20 @@
         <v>52</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" s="19">
         <v>8</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2749,10 +2749,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>28</v>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2770,20 +2770,20 @@
         <v>54</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="19">
         <v>8</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="15" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>28</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="15" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2812,10 +2812,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>28</v>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="15" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,13 +2833,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E65" s="19">
         <v>3</v>
@@ -2852,10 +2852,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>3</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -2873,10 +2873,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>28</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="24" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3354,24 +3354,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
